--- a/Banco Central/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
+++ b/Banco Central/5/9/Índice diario de incertidumbre económica 2012 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1634,7 +1637,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>255.2913</v>
+        <v>255.2923</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1643,6 +1646,14 @@
       </c>
       <c r="B115">
         <v>213.0508</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>230.8109</v>
       </c>
     </row>
   </sheetData>
